--- a/water_quality_prediction/data/mini_sample/화천_2019.xlsx
+++ b/water_quality_prediction/data/mini_sample/화천_2019.xlsx
@@ -428,7 +428,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -443,7 +443,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="1">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="I4" t="s">
         <v>10</v>
@@ -609,10 +609,10 @@
         <v>2.1</v>
       </c>
       <c r="H5" s="1">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="I5" s="1">
-        <v>0.75700000000000001</v>
+        <v>22</v>
       </c>
       <c r="J5" s="1">
         <v>1.0999999999999999E-2</v>
@@ -641,10 +641,10 @@
         <v>1.8</v>
       </c>
       <c r="H6" s="1">
-        <v>2.4</v>
+        <v>3</v>
       </c>
       <c r="I6" s="1">
-        <v>0.71799999999999997</v>
+        <v>33</v>
       </c>
       <c r="J6" s="1">
         <v>1.4E-2</v>
